--- a/data_processed/20250724/BTCUSDVOLSURFACE_20250724.xlsx
+++ b/data_processed/20250724/BTCUSDVOLSURFACE_20250724.xlsx
@@ -10990,7 +10990,7 @@
       </c>
       <c r="G365" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -11048,7 +11048,7 @@
       </c>
       <c r="G367" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -14068,7 +14068,7 @@
       </c>
       <c r="G475" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -14151,7 +14151,7 @@
       </c>
       <c r="G478" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -14234,7 +14234,7 @@
       </c>
       <c r="G481" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -14371,7 +14371,7 @@
       </c>
       <c r="G486" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -14599,7 +14599,7 @@
       </c>
       <c r="G494" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -14657,7 +14657,7 @@
       </c>
       <c r="G496" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -14711,7 +14711,7 @@
       </c>
       <c r="G498" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -14769,7 +14769,7 @@
       </c>
       <c r="G500" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -14823,7 +14823,7 @@
       </c>
       <c r="G502" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -14881,7 +14881,7 @@
       </c>
       <c r="G504" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -14935,7 +14935,7 @@
       </c>
       <c r="G506" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -15018,7 +15018,7 @@
       </c>
       <c r="G509" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -15101,7 +15101,7 @@
       </c>
       <c r="G512" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -15213,7 +15213,7 @@
       </c>
       <c r="G516" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -20891,7 +20891,7 @@
       </c>
       <c r="G730" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -21003,7 +21003,7 @@
       </c>
       <c r="G734" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>

--- a/data_processed/20250724/BTCUSDVOLSURFACE_20250724.xlsx
+++ b/data_processed/20250724/BTCUSDVOLSURFACE_20250724.xlsx
@@ -19937,7 +19937,7 @@
       </c>
       <c r="G696" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -19966,7 +19966,7 @@
       </c>
       <c r="G697" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -20024,7 +20024,7 @@
       </c>
       <c r="G699" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -20053,7 +20053,7 @@
       </c>
       <c r="G700" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -20082,7 +20082,7 @@
       </c>
       <c r="G701" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -20111,7 +20111,7 @@
       </c>
       <c r="G702" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -20140,7 +20140,7 @@
       </c>
       <c r="G703" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -20169,7 +20169,7 @@
       </c>
       <c r="G704" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -20198,7 +20198,7 @@
       </c>
       <c r="G705" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -20227,7 +20227,7 @@
       </c>
       <c r="G706" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -20256,7 +20256,7 @@
       </c>
       <c r="G707" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -32457,7 +32457,7 @@
       </c>
       <c r="G1172" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -51292,7 +51292,7 @@
       </c>
       <c r="G1899" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -51321,7 +51321,7 @@
       </c>
       <c r="G1900" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -52314,7 +52314,7 @@
       </c>
       <c r="G1937" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -52343,7 +52343,7 @@
       </c>
       <c r="G1938" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -52401,7 +52401,7 @@
       </c>
       <c r="G1940" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -52430,7 +52430,7 @@
       </c>
       <c r="G1941" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
